--- a/biology/Médecine/Daniel_Stolz_von_Stolzenberg/Daniel_Stolz_von_Stolzenberg.xlsx
+++ b/biology/Médecine/Daniel_Stolz_von_Stolzenberg/Daniel_Stolz_von_Stolzenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Stolz von Stolzenberg (Daniel Stolcius ; 1600-1660) est un médecin et auteur d'ouvrages sur l'alchimie de Bohême.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut l'élève de Michael Maier à Prague[1]. Son nom est souvent écrit 'von Stolcenberg', c'est-à-dire venant de Stolzenberg, ou parfois von Stolcenbeerg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut l'élève de Michael Maier à Prague. Son nom est souvent écrit 'von Stolcenberg', c'est-à-dire venant de Stolzenberg, ou parfois von Stolcenbeerg.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Stolcius est principalement connu pour son ouvrage Viridarium Chymicum[2], une anthologie[3] sur l'alchimie, compilant plusieurs sources[4],[5].
-Cet ouvrage fut suivi en 1627 par Hortulus Hermeticus[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Stolcius est principalement connu pour son ouvrage Viridarium Chymicum, une anthologie sur l'alchimie, compilant plusieurs sources,.
+Cet ouvrage fut suivi en 1627 par Hortulus Hermeticus,.
 </t>
         </is>
       </c>
